--- a/results/region_genre_06_twoway_genre_region.xlsx
+++ b/results/region_genre_06_twoway_genre_region.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12538102593658.55</v>
+        <v>35282080892038.41</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>53.89528839542973</v>
+        <v>85.29514073960716</v>
       </c>
       <c r="E2" t="n">
-        <v>2.134332853940513e-13</v>
+        <v>2.682708941729254e-20</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214045746271618.8</v>
+        <v>186714193183639.1</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>306.6933277703043</v>
+        <v>150.4617734463468</v>
       </c>
       <c r="E3" t="n">
-        <v>5.158904739810314e-198</v>
+        <v>5.228875377493775e-97</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39456825883435.78</v>
+        <v>27726563563959.32</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9211933268368</v>
+        <v>13.40590510321763</v>
       </c>
       <c r="E4" t="n">
-        <v>9.643713698783637e-35</v>
+        <v>4.350280342146492e-13</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72750054501396.91</v>
+        <v>37261038338771.63</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>20.84783902427204</v>
+        <v>6.005287346730919</v>
       </c>
       <c r="E5" t="n">
-        <v>1.667467926761386e-57</v>
+        <v>9.922002007032502e-13</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.888929085461632e+16</v>
+        <v>1.790429766677027e+16</v>
       </c>
       <c r="C6" t="n">
-        <v>81196</v>
+        <v>43284</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
